--- a/Docs/Lab02/Lab02_BBT_TCs.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6DDA1C-4A2D-4838-8B61-A661E8402CB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EB94C-1880-4B04-9B06-F96935DE3626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,7 @@
     <sheet name="Req01.BVA" sheetId="3" r:id="rId3"/>
     <sheet name="BBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -147,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>do not print this form</t>
   </si>
@@ -352,9 +341,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>1) TCs: 2, … are not possible to be created</t>
-  </si>
-  <si>
     <t>max &gt; inStock</t>
   </si>
   <si>
@@ -497,28 +483,10 @@
     <t>inStock = 1</t>
   </si>
   <si>
-    <t>inStock = 4.294.967.295</t>
-  </si>
-  <si>
     <t>TC9_EC</t>
   </si>
   <si>
-    <t>inStock = 4.294.967.296</t>
-  </si>
-  <si>
-    <t>4.294.967.295</t>
-  </si>
-  <si>
-    <t>inStock = 4.294.967.297</t>
-  </si>
-  <si>
-    <t>4.294.967.296</t>
-  </si>
-  <si>
     <t>min = 0</t>
-  </si>
-  <si>
-    <t>4.294.967.297</t>
   </si>
   <si>
     <t>TCs: 2, 6, … are not possible to be created</t>
@@ -680,12 +648,24 @@
   <si>
     <t>yes</t>
   </si>
+  <si>
+    <t>inStock = 2147483647</t>
+  </si>
+  <si>
+    <t>inStock = 2147483648</t>
+  </si>
+  <si>
+    <t>inStock = 2147483649</t>
+  </si>
+  <si>
+    <t>inStock = 2147483646</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,99 +1560,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,38 +1674,74 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1739,21 +1761,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,39 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,12 +2147,12 @@
       <selection activeCell="N3" sqref="N3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2163,7 @@
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L2" s="64" t="s">
         <v>2</v>
       </c>
@@ -2191,7 +2171,7 @@
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L3" s="65" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2183,7 @@
       <c r="P3" s="68"/>
       <c r="Q3" s="69"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2222,17 +2202,17 @@
       </c>
       <c r="Q4" s="69"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -2240,23 +2220,23 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2244,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2291,29 +2271,29 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2324,38 +2304,38 @@
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="91" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="96" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="G5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="56" t="s">
         <v>16</v>
       </c>
@@ -2368,44 +2348,44 @@
       <c r="E6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="H6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="106" t="s">
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="106"/>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="Q6" s="82"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="54">
         <v>1</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="54"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="83" t="s">
+      <c r="G7" s="99"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="55" t="s">
         <v>26</v>
       </c>
@@ -2418,16 +2398,16 @@
       <c r="O7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="85"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="Q7" s="87"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="54">
         <v>2</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54" t="s">
         <v>31</v>
@@ -2438,11 +2418,11 @@
       <c r="H8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="4">
         <v>15</v>
       </c>
@@ -2455,16 +2435,16 @@
       <c r="O8" s="4">
         <v>20000</v>
       </c>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="90"/>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="Q8" s="89"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="54">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -2474,26 +2454,22 @@
       <c r="G9" s="31">
         <v>2</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="90"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="P9" s="88"/>
+      <c r="Q9" s="89"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="54">
         <v>4</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54" t="s">
         <v>37</v>
@@ -2504,23 +2480,33 @@
       <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="89" t="s">
+      <c r="I10" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="4">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O10" s="4">
+        <v>20000</v>
+      </c>
+      <c r="P10" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="90"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1">
+      <c r="Q10" s="89"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="54">
         <v>5</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="71" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="54" t="s">
@@ -2530,36 +2516,22 @@
       <c r="G11" s="32">
         <v>4</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="4">
-        <v>15</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O11" s="4">
-        <v>20000</v>
-      </c>
-      <c r="P11" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="90"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="H11" s="12"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="89"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="54">
         <v>6</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54" t="s">
         <v>40</v>
@@ -2570,11 +2542,11 @@
       <c r="H12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="100">
         <v>21</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
       <c r="L12" s="4" t="s">
         <v>42</v>
       </c>
@@ -2587,16 +2559,16 @@
       <c r="O12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="89" t="s">
+      <c r="P12" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="90"/>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="Q12" s="89"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="54">
         <v>7</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="71" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -2609,23 +2581,23 @@
       <c r="H13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
-      <c r="P13" s="94" t="s">
+      <c r="P13" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="95"/>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="Q13" s="94"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="54">
         <v>8</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54" t="s">
         <v>45</v>
@@ -2633,24 +2605,22 @@
       <c r="G14" s="33">
         <v>7</v>
       </c>
-      <c r="H14" s="17">
-        <v>2</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="P14" s="83"/>
+      <c r="Q14" s="84"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="54">
         <v>9</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="71" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="54" t="s">
@@ -2663,42 +2633,42 @@
       <c r="H15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="82"/>
-    </row>
-    <row r="16" spans="2:17">
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="54">
         <v>10</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="105"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="82"/>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="P16" s="83"/>
+      <c r="Q16" s="84"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="54">
         <v>11</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="71" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="54" t="s">
@@ -2707,42 +2677,42 @@
       <c r="E17" s="54"/>
       <c r="G17" s="18"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="54">
         <v>12</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="82"/>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="P18" s="83"/>
+      <c r="Q18" s="84"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="54">
         <v>13</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="71" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="54" t="s">
@@ -2751,31 +2721,31 @@
       <c r="E19" s="54"/>
       <c r="G19" s="56"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="82"/>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="54">
         <v>14</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="54">
         <v>15</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="71" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="54" t="s">
@@ -2783,92 +2753,105 @@
       </c>
       <c r="E21" s="54"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="54">
         <v>16</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-    </row>
-    <row r="23" spans="2:17">
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>17</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>56</v>
+      <c r="C23" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-    </row>
-    <row r="24" spans="2:17">
+      <c r="H23" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>18</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
+      <c r="H24" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
     <mergeCell ref="H24:Q24"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:Q22"/>
@@ -2885,29 +2868,14 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2920,31 +2888,31 @@
   </sheetPr>
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2956,95 +2924,95 @@
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="91" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="125" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="G5" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="G5" s="97" t="s">
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="54" t="s">
         <v>62</v>
-      </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1">
-      <c r="B6" s="54" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="G6" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="G6" s="86" t="s">
+      <c r="H6" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="I6" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="J6" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="118" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="120"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="107">
+      <c r="R6" s="124"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="72">
         <v>1</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="85"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="55" t="s">
         <v>26</v>
       </c>
@@ -3057,19 +3025,19 @@
       <c r="P7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="85"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
+      <c r="Q7" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="87"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="56">
         <v>1</v>
@@ -3078,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="113" t="s">
+      <c r="K8" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="114"/>
+      <c r="L8" s="116"/>
       <c r="M8" s="4">
         <v>1</v>
       </c>
@@ -3097,19 +3065,19 @@
       <c r="P8" s="4">
         <v>2</v>
       </c>
-      <c r="Q8" s="116" t="s">
+      <c r="Q8" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="117"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
+      <c r="R8" s="110"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="18">
         <v>2</v>
@@ -3118,15 +3086,15 @@
         <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="124"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="4">
         <v>1</v>
       </c>
@@ -3139,19 +3107,19 @@
       <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="117"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
+      <c r="R9" s="110"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="56">
         <v>3</v>
@@ -3160,13 +3128,13 @@
         <v>3</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="122"/>
+      <c r="K10" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="120"/>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -3179,19 +3147,19 @@
       <c r="P10" s="4">
         <v>2</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="117"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
+      <c r="R10" s="110"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="2">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="56">
         <v>4</v>
@@ -3200,13 +3168,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="122"/>
+      <c r="K11" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="120"/>
       <c r="M11" s="4">
         <v>1</v>
       </c>
@@ -3219,19 +3187,19 @@
       <c r="P11" s="4">
         <v>2</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="Q11" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="117"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="R11" s="110"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="2">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="56">
         <v>5</v>
@@ -3240,13 +3208,13 @@
         <v>5</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="122"/>
+      <c r="K12" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="120"/>
       <c r="M12" s="4">
         <v>1</v>
       </c>
@@ -3259,23 +3227,23 @@
       <c r="P12" s="4">
         <v>2</v>
       </c>
-      <c r="Q12" s="116" t="s">
+      <c r="Q12" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="117"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="107">
+      <c r="R12" s="110"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="72">
         <v>2</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="18">
         <v>6</v>
@@ -3284,15 +3252,15 @@
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="124"/>
+        <v>74</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="118"/>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -3305,19 +3273,19 @@
       <c r="P13" s="4">
         <v>2</v>
       </c>
-      <c r="Q13" s="81" t="s">
+      <c r="Q13" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="117"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
+      <c r="R13" s="110"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="2">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="18">
         <v>7</v>
@@ -3326,15 +3294,15 @@
         <v>7</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="114"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="28">
         <v>0</v>
       </c>
@@ -3347,19 +3315,19 @@
       <c r="P14" s="4">
         <v>2</v>
       </c>
-      <c r="Q14" s="81" t="s">
+      <c r="Q14" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="117"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
+      <c r="R14" s="110"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="2">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="18">
         <v>8</v>
@@ -3368,15 +3336,15 @@
         <v>8</v>
       </c>
       <c r="I15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="114"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="28">
         <v>-1</v>
       </c>
@@ -3389,19 +3357,19 @@
       <c r="P15" s="4">
         <v>2</v>
       </c>
-      <c r="Q15" s="81" t="s">
+      <c r="Q15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="117"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
+      <c r="R15" s="110"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="2">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="56">
         <v>9</v>
@@ -3410,13 +3378,13 @@
         <v>9</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="114"/>
+      <c r="K16" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="116"/>
       <c r="M16" s="28">
         <v>1</v>
       </c>
@@ -3429,19 +3397,19 @@
       <c r="P16" s="4">
         <v>2</v>
       </c>
-      <c r="Q16" s="116" t="s">
+      <c r="Q16" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="117"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+      <c r="R16" s="110"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="2">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="56">
         <v>10</v>
@@ -3450,13 +3418,13 @@
         <v>10</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="114"/>
+      <c r="K17" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="116"/>
       <c r="M17" s="28">
         <v>65535</v>
       </c>
@@ -3469,19 +3437,19 @@
       <c r="P17" s="4">
         <v>2</v>
       </c>
-      <c r="Q17" s="116" t="s">
+      <c r="Q17" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="117"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
+      <c r="R17" s="110"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="2">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="18">
         <v>11</v>
@@ -3490,15 +3458,15 @@
         <v>11</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="116"/>
       <c r="M18" s="28">
         <v>65535</v>
       </c>
@@ -3511,23 +3479,23 @@
       <c r="P18" s="4">
         <v>2</v>
       </c>
-      <c r="Q18" s="81" t="s">
+      <c r="Q18" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="117"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="107">
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="72">
         <v>3</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="112" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="2">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="18">
         <v>12</v>
@@ -3536,15 +3504,15 @@
         <v>12</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K19" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="116"/>
       <c r="M19" s="28">
         <v>65535</v>
       </c>
@@ -3557,19 +3525,19 @@
       <c r="P19" s="4">
         <v>2</v>
       </c>
-      <c r="Q19" s="81" t="s">
+      <c r="Q19" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="117"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="109"/>
-      <c r="C20" s="111"/>
+      <c r="R19" s="110"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="111"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="2">
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="56">
         <v>13</v>
@@ -3578,15 +3546,15 @@
         <v>13</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K20" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="116"/>
       <c r="M20" s="29">
         <v>1</v>
       </c>
@@ -3599,19 +3567,19 @@
       <c r="P20" s="4">
         <v>2</v>
       </c>
-      <c r="Q20" s="81" t="s">
+      <c r="Q20" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="117"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="109"/>
-      <c r="C21" s="111"/>
+      <c r="R20" s="110"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="111"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="2">
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="56">
         <v>14</v>
@@ -3620,15 +3588,15 @@
         <v>14</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="116"/>
       <c r="M21" s="29">
         <v>1</v>
       </c>
@@ -3641,19 +3609,19 @@
       <c r="P21" s="4">
         <v>2</v>
       </c>
-      <c r="Q21" s="81" t="s">
+      <c r="Q21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="117"/>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="109"/>
-      <c r="C22" s="111"/>
+      <c r="R21" s="110"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="111"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="2">
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G22" s="56">
         <v>15</v>
@@ -3662,13 +3630,13 @@
         <v>15</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="114"/>
+      <c r="K22" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="116"/>
       <c r="M22" s="29">
         <v>1</v>
       </c>
@@ -3681,19 +3649,19 @@
       <c r="P22" s="4">
         <v>2</v>
       </c>
-      <c r="Q22" s="116" t="s">
+      <c r="Q22" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="117"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="109"/>
-      <c r="C23" s="111"/>
+      <c r="R22" s="110"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="111"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="2">
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="G23" s="56">
         <v>16</v>
@@ -3702,18 +3670,18 @@
         <v>16</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J23" s="15"/>
-      <c r="K23" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="114"/>
+      <c r="K23" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="116"/>
       <c r="M23" s="29">
         <v>1</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>100</v>
+      <c r="N23" s="28">
+        <v>2147483647</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
@@ -3721,19 +3689,19 @@
       <c r="P23" s="4">
         <v>2</v>
       </c>
-      <c r="Q23" s="116" t="s">
+      <c r="Q23" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="117"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="108"/>
-      <c r="C24" s="112"/>
+      <c r="R23" s="110"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="73"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="2">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="G24" s="18">
         <v>17</v>
@@ -3742,20 +3710,20 @@
         <v>17</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K24" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="116"/>
       <c r="M24" s="29">
         <v>1</v>
       </c>
-      <c r="N24" s="28" t="s">
-        <v>102</v>
+      <c r="N24" s="28">
+        <v>2147483648</v>
       </c>
       <c r="O24" s="4">
         <v>0</v>
@@ -3763,23 +3731,23 @@
       <c r="P24" s="4">
         <v>2</v>
       </c>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="117"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="107">
+      <c r="R24" s="110"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="72">
         <v>4</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="112" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="2">
         <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G25" s="18">
         <v>18</v>
@@ -3788,20 +3756,20 @@
         <v>18</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="114"/>
+        <v>74</v>
+      </c>
+      <c r="K25" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="116"/>
       <c r="M25" s="29">
         <v>1</v>
       </c>
-      <c r="N25" s="28" t="s">
-        <v>104</v>
+      <c r="N25" s="28">
+        <v>2147483649</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
@@ -3809,19 +3777,19 @@
       <c r="P25" s="4">
         <v>2</v>
       </c>
-      <c r="Q25" s="81" t="s">
+      <c r="Q25" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="R25" s="117"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="109"/>
-      <c r="C26" s="111"/>
+      <c r="R25" s="110"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="111"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="2">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3837,14 +3805,14 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="109"/>
-      <c r="C27" s="111"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="111"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="2">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3860,26 +3828,26 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="109"/>
-      <c r="C28" s="111"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="111"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="2">
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="42"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3887,22 +3855,22 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="109"/>
-      <c r="C29" s="111"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="111"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="2">
         <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
       <c r="N29" s="43"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3910,82 +3878,128 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="2:19">
-      <c r="B30" s="108"/>
-      <c r="C30" s="112"/>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="73"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="2">
         <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="107">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="72">
         <v>5</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="112" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="2">
         <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="109"/>
-      <c r="C32" s="111"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="111"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="109"/>
-      <c r="C33" s="111"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="111"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="2">
         <v>27</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="109"/>
-      <c r="C34" s="111"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="111"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="2">
         <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="109"/>
-      <c r="C35" s="111"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="111"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="108"/>
-      <c r="C36" s="112"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B25:B30"/>
@@ -4002,52 +4016,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4063,23 +4031,23 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
     <col min="13" max="14" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
@@ -4091,60 +4059,60 @@
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="151" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="83" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="106" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="106"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B5" s="150"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="156" t="s">
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="134"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="24" t="s">
         <v>26</v>
       </c>
@@ -4161,27 +4129,27 @@
         <v>30</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="148" t="s">
-        <v>113</v>
+      <c r="C6" s="132" t="s">
+        <v>106</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="4">
         <v>15</v>
       </c>
@@ -4195,29 +4163,29 @@
         <v>20000</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="4">
         <v>15</v>
       </c>
@@ -4231,29 +4199,29 @@
         <v>20000</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="4">
         <v>15</v>
       </c>
@@ -4267,29 +4235,29 @@
         <v>20000</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="148"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="4">
         <v>15</v>
       </c>
@@ -4303,29 +4271,29 @@
         <v>1000</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="57" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+        <v>117</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="4">
         <v>0.1</v>
       </c>
@@ -4339,29 +4307,29 @@
         <v>2</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="148"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="57" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+        <v>118</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="4">
         <v>0.1</v>
       </c>
@@ -4371,33 +4339,33 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="60" t="s">
-        <v>100</v>
+      <c r="L11" s="60">
+        <v>2147483647</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="57" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+        <v>119</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="101"/>
+      <c r="H12" s="102"/>
       <c r="I12" s="4">
         <v>0.1</v>
       </c>
@@ -4411,29 +4379,29 @@
         <v>2</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+        <v>121</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="4">
         <v>1</v>
       </c>
@@ -4447,13 +4415,13 @@
         <v>2</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="34"/>
       <c r="D14" s="26"/>
@@ -4468,9 +4436,9 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -4480,93 +4448,93 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L16" s="21"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:14" ht="15.75" thickTop="1">
-      <c r="C17" s="137" t="s">
+    <row r="17" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="151"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="143"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="37" t="s">
+      <c r="G18" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H18" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="140"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="128" t="s">
+      <c r="I18" s="153"/>
+      <c r="J18" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="N18" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="129"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="135" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="134" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="142"/>
-      <c r="J18" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="K18" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="N18" s="132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="133"/>
-    </row>
-    <row r="20" spans="2:14">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="146"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C20" s="36">
         <v>8</v>
@@ -4581,12 +4549,12 @@
         <v>1</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="127"/>
+        <v>135</v>
+      </c>
+      <c r="H20" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="141"/>
       <c r="J20" s="2">
         <v>8</v>
       </c>
@@ -4603,30 +4571,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="M17:N17"/>
@@ -4643,6 +4592,25 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
